--- a/Output/Report.xlsx
+++ b/Output/Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC19B0-D685-4AF6-83FA-4EAC72F9D90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>PostIndex</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +350,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1445</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>670</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3026</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/Report.xlsx
+++ b/Output/Report.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC19B0-D685-4AF6-83FA-4EAC72F9D90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2FFB6-0EC5-426F-B07F-BA5721A123B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="elianmita" sheetId="3" r:id="rId1"/>
+    <sheet name="selly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>PostIndex</t>
   </si>
@@ -350,14 +354,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EA2EE7-E297-48BA-BD64-5D467770715B}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,7 +377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -379,7 +388,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -390,7 +399,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -401,37 +410,105 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1445</v>
+        <v>1454</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3026</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515A0FD-950C-4844-9696-55C45DDB1177}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>7874</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>37000</v>
+      </c>
+      <c r="C6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Report.xlsx
+++ b/Output/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE2FFB6-0EC5-426F-B07F-BA5721A123B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F7178A-1615-448F-80C7-2DA856926638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elianmita" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -361,12 +358,12 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,56 +374,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>108</v>
+        <v>107900</v>
       </c>
       <c r="C3">
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>89100</v>
       </c>
       <c r="C4">
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>2100000</v>
       </c>
       <c r="C5">
         <v>5078</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1454</v>
+        <v>1465</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -443,9 +440,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,40 +453,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>7874</v>
+        <v>8250</v>
       </c>
       <c r="C3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>13400</v>
       </c>
       <c r="C4">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>18800</v>
       </c>
       <c r="C5">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -500,12 +497,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>13100</v>
       </c>
       <c r="C7">
         <v>91</v>

--- a/Output/Report.xlsx
+++ b/Output/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F7178A-1615-448F-80C7-2DA856926638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DB011-B0D6-4DE5-9E42-E01FC0192376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elianmita" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>PostIndex</t>
   </si>
@@ -35,6 +38,57 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>CommentText</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Când apare următorul episod de buzz house?</t>
+  </si>
+  <si>
+    <t>{"score":0,"label":"Neutral"}</t>
+  </si>
+  <si>
+    <t>da si mie un million pe revolut Sa ti traiasca familia ta</t>
+  </si>
+  <si>
+    <t>{"score":33,"label":"Slightly Positive"}</t>
+  </si>
+  <si>
+    <t>Plastic si 37de grade caldura? O sa se curbeze zic eu, eu am la gard și e oribil🥺</t>
+  </si>
+  <si>
+    <t>{"score":-66,"label":"Negative"}</t>
+  </si>
+  <si>
+    <t>ba grivita nu e in Ialomița???😅</t>
+  </si>
+  <si>
+    <t>căt costă ❤️❤️</t>
+  </si>
+  <si>
+    <t>{"score":66,"label":"Positive"}</t>
+  </si>
+  <si>
+    <t>ce am înteles eu: deci prajiturile sunt vechi cand sunt gata de vânzare🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>ALȚII NU AU DELOC HARTIE SI TU ÎȚI BATI JOC DE EA?</t>
+  </si>
+  <si>
+    <t>{"score":-99,"label":"Very Negative"}</t>
+  </si>
+  <si>
+    <t>Ce ar trebui să fie ??</t>
+  </si>
+  <si>
+    <t>{"score":99,"label":"Very Positive"}</t>
+  </si>
+  <si>
+    <t>incearca si "strudelul cu mere " de la pregel ,e extraordinar</t>
   </si>
 </sst>
 </file>
@@ -352,18 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EA2EE7-E297-48BA-BD64-5D467770715B}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,8 +429,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -384,8 +446,14 @@
       <c r="C3">
         <v>839</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -395,8 +463,14 @@
       <c r="C4">
         <v>379</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -406,27 +480,45 @@
       <c r="C5">
         <v>5078</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1465</v>
+        <v>1500</v>
       </c>
       <c r="C6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="C7">
         <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -436,13 +528,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7515A0FD-950C-4844-9696-55C45DDB1177}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="69.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,41 +552,65 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>8250</v>
+        <v>10100</v>
       </c>
       <c r="C3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="C4">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="C5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="D5">
+        <v>2029</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -496,8 +620,14 @@
       <c r="C6">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -506,6 +636,12 @@
       </c>
       <c r="C7">
         <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Report.xlsx
+++ b/Output/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DB011-B0D6-4DE5-9E42-E01FC0192376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF94CBA-8ECC-46F0-8C37-A84DA8369151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elianmita" sheetId="3" r:id="rId1"/>
@@ -21,15 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>PostIndex</t>
   </si>
@@ -46,49 +43,49 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Când apare următorul episod de buzz house?</t>
-  </si>
-  <si>
     <t>{"score":0,"label":"Neutral"}</t>
   </si>
   <si>
+    <t>{"score":33,"label":"Slightly Positive"}</t>
+  </si>
+  <si>
+    <t>ALȚII NU AU DELOC HARTIE SI TU ÎȚI BATI JOC DE EA?</t>
+  </si>
+  <si>
+    <t>{"score":-99,"label":"Very Negative"}</t>
+  </si>
+  <si>
+    <t>{"score":99,"label":"Very Positive"}</t>
+  </si>
+  <si>
+    <t>incearca si "strudelul cu mere " de la pregel ,e extraordinar</t>
+  </si>
+  <si>
+    <t>Vrem să vedem Buzz house 2016 cu YouTuberii old</t>
+  </si>
+  <si>
+    <t>facebook e ala cu albastru bre</t>
+  </si>
+  <si>
+    <t>pana si plusul munceste</t>
+  </si>
+  <si>
+    <t>Credeam ca e ai</t>
+  </si>
+  <si>
     <t>da si mie un million pe revolut Sa ti traiasca familia ta</t>
   </si>
   <si>
-    <t>{"score":33,"label":"Slightly Positive"}</t>
-  </si>
-  <si>
-    <t>Plastic si 37de grade caldura? O sa se curbeze zic eu, eu am la gard și e oribil🥺</t>
-  </si>
-  <si>
-    <t>{"score":-66,"label":"Negative"}</t>
-  </si>
-  <si>
-    <t>ba grivita nu e in Ialomița???😅</t>
-  </si>
-  <si>
-    <t>căt costă ❤️❤️</t>
-  </si>
-  <si>
-    <t>{"score":66,"label":"Positive"}</t>
-  </si>
-  <si>
-    <t>ce am înteles eu: deci prajiturile sunt vechi cand sunt gata de vânzare🤣🤣🤣🤣</t>
-  </si>
-  <si>
-    <t>ALȚII NU AU DELOC HARTIE SI TU ÎȚI BATI JOC DE EA?</t>
-  </si>
-  <si>
-    <t>{"score":-99,"label":"Very Negative"}</t>
-  </si>
-  <si>
-    <t>Ce ar trebui să fie ??</t>
-  </si>
-  <si>
-    <t>{"score":99,"label":"Very Positive"}</t>
-  </si>
-  <si>
-    <t>incearca si "strudelul cu mere " de la pregel ,e extraordinar</t>
+    <t>voi va dați seama că el mănâncă asa ceva mereu?😭😭 Vreau și euuuu😭</t>
+  </si>
+  <si>
+    <t>Fraților îți ia o zi să faci un tort de casă de la 0 😭😭😭 gătitul e o artă și e nevoie de răbdare dacă vrei să iasă ceva bine</t>
+  </si>
+  <si>
+    <t>{"score":-33,"label":"Slightly Negative"}</t>
+  </si>
+  <si>
+    <t>De mâine vedem la toți … Mãr 3D😂! Elian prea bune ideii inspiri ❤️😂‼️</t>
   </si>
 </sst>
 </file>
@@ -412,14 +409,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -447,13 +444,13 @@
         <v>839</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -464,13 +461,13 @@
         <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -481,44 +478,44 @@
         <v>5078</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1500</v>
+        <v>1551</v>
       </c>
       <c r="C6">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -534,15 +531,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="69.5546875" customWidth="1"/>
-    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="69.54296875" customWidth="1"/>
+    <col min="5" max="5" width="48.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,24 +556,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>10100</v>
+        <v>11400</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -587,47 +584,47 @@
         <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="C5">
-        <v>206</v>
-      </c>
-      <c r="D5">
-        <v>2029</v>
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>37000</v>
+        <v>37100</v>
       </c>
       <c r="C6">
         <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -638,10 +635,10 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Report.xlsx
+++ b/Output/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C3BDD-C333-471F-91D2-17B6B1AE351E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6986D2F-83EF-4E7B-961F-CCD9101C7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3729793E-5EA6-4115-A2AF-53DF72E81902}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{3729793E-5EA6-4115-A2AF-53DF72E81902}"/>
   </bookViews>
   <sheets>
     <sheet name="selly" sheetId="3" r:id="rId1"/>
@@ -28,19 +28,14 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>PostIndex</t>
   </si>
@@ -57,15 +52,6 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>căt costă ❤️❤️</t>
-  </si>
-  <si>
-    <t>{"score":66,"label":"Positive"}</t>
-  </si>
-  <si>
-    <t>ce am înteles eu: deci prajiturile sunt vechi cand sunt gata de vânzare🤣🤣🤣🤣</t>
-  </si>
-  <si>
     <t>{"score":0,"label":"Neutral"}</t>
   </si>
   <si>
@@ -75,34 +61,40 @@
     <t>{"score":-99,"label":"Very Negative"}</t>
   </si>
   <si>
-    <t>Ce ar trebui să fie ??</t>
-  </si>
-  <si>
     <t>incearca si "strudelul cu mere " de la pregel ,e extraordinar</t>
   </si>
   <si>
     <t>{"score":99,"label":"Very Positive"}</t>
   </si>
   <si>
-    <t>Când apare următorul episod de buzz house?</t>
-  </si>
-  <si>
     <t>da si mie un million pe revolut Sa ti traiasca familia ta</t>
   </si>
   <si>
     <t>{"score":33,"label":"Slightly Positive"}</t>
   </si>
   <si>
-    <t>pushing 30 btw</t>
-  </si>
-  <si>
-    <t>Plastic si 37de grade caldura? O sa se curbeze zic eu, eu am la gard și e oribil🥺</t>
-  </si>
-  <si>
-    <t>{"score":-66,"label":"Negative"}</t>
-  </si>
-  <si>
-    <t>ba grivita nu e in Ialomița???😅</t>
+    <t>voi va dați seama că el mănâncă asa ceva mereu?😭😭 Vreau și euuuu😭</t>
+  </si>
+  <si>
+    <t>Fraților îți ia o zi să faci un tort de casă de la 0 😭😭😭 gătitul e o artă și e nevoie de răbdare dacă vrei să iasă ceva bine</t>
+  </si>
+  <si>
+    <t>{"score":-33,"label":"Slightly Negative"}</t>
+  </si>
+  <si>
+    <t>De mâine vedem la toți … Mãr 3D😂! Elian prea bune ideii inspiri ❤️😂‼️</t>
+  </si>
+  <si>
+    <t>Vrem să vedem Buzz house 2016 cu YouTuberii old</t>
+  </si>
+  <si>
+    <t>facebook e ala cu albastru bre</t>
+  </si>
+  <si>
+    <t>pana si plusul munceste</t>
+  </si>
+  <si>
+    <t>Credeam ca e ai</t>
   </si>
 </sst>
 </file>
@@ -478,9 +470,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,41 +489,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="C4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -545,10 +537,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -562,10 +554,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -576,10 +568,10 @@
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -593,9 +585,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -623,13 +615,13 @@
         <v>839</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -640,13 +632,13 @@
         <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -654,47 +646,47 @@
         <v>2100000</v>
       </c>
       <c r="C5">
-        <v>5078</v>
+        <v>5079</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1550</v>
+        <v>1561</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
